--- a/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
+++ b/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\bldgs\SYCEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\SYCEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF25953-F2F8-4732-B4D3-084ED492C00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21150" yWindow="2250" windowWidth="20655" windowHeight="12825" tabRatio="776" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-28680" yWindow="2160" windowWidth="15480" windowHeight="12375" activeTab="1" xr2:uid="{CB934753-F4B4-4DB1-82B7-5ADC08BBD442}"/>
+    <workbookView xWindow="-21150" yWindow="2250" windowWidth="20655" windowHeight="12825" tabRatio="776"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +18,7 @@
     <sheet name="SYCEU-rural-residential" sheetId="30" r:id="rId4"/>
     <sheet name="SYCEU-commercial" sheetId="31" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -226,9 +224,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -485,7 +483,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -500,23 +498,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Header: top rows" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="11"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13"/>
+    <cellStyle name="Footnotes: top row" xfId="6"/>
+    <cellStyle name="Footnotes: top row 2" xfId="9"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: bottom row 2" xfId="12"/>
+    <cellStyle name="Header: top rows" xfId="16"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Parent row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Parent row" xfId="5"/>
+    <cellStyle name="Parent row 2" xfId="10"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Table title 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title 2" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -607,23 +605,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -659,23 +640,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -851,13 +815,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1041,7 +1004,7 @@
     </row>
     <row r="41" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -1168,7 +1131,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{B33A1742-5615-419B-9D33-AA6AC4954902}"/>
+    <hyperlink ref="B35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1176,17 +1139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED24824-075F-4B47-8D62-4734D7DE2FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:AK151"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="1">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AK151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18265,21 +18225,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M41" sqref="M41"/>
       <selection pane="topRight" activeCell="M41" sqref="M41"/>
       <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18323,7 +18280,7 @@
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>74230285047056.813</v>
+        <v>91643082695721.781</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -18331,15 +18288,15 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>54075037063113.539</v>
+        <v>57766719469841.469</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>149920662784308.41</v>
+        <v>167016388205793.28</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>29793011115519.977</v>
+        <v>35404039443898.594</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -18394,7 +18351,7 @@
       </c>
       <c r="F4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>74865213239966.547</v>
+        <v>83736758498055.078</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
@@ -18481,7 +18438,7 @@
       </c>
       <c r="F7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>467225402671796.38</v>
+        <v>447563177736256.06</v>
       </c>
       <c r="G7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
@@ -18568,7 +18525,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>598966165903575.75</v>
+        <v>613594869391822.25</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
@@ -18611,7 +18568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C363CC6-2AF1-40D2-9144-7FE415EBF2FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18624,7 +18581,6 @@
       <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -18663,11 +18619,11 @@
       </c>
       <c r="B2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,B$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>150709972671298.06</v>
+        <v>180699697898432.28</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -18675,15 +18631,15 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>109788711612988.75</v>
+        <v>113903073202393.92</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>304384375956021.94</v>
+        <v>329319027744611.56</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>60488840749692.438</v>
+        <v>69808861113260.156</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -18738,7 +18694,7 @@
       </c>
       <c r="F4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>30861817111245.664</v>
+        <v>34489590862747.207</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
@@ -18825,7 +18781,7 @@
       </c>
       <c r="F7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>3808536069842086.5</v>
+        <v>3612497415464614</v>
       </c>
       <c r="G7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
@@ -18850,11 +18806,11 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>135916322988352.5</v>
+        <v>108733058390682</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>15101813665372.5</v>
+        <v>12081450932298</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
@@ -18912,7 +18868,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>313037451949964.38</v>
+        <v>336891349652692.69</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
@@ -18955,7 +18911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC05FCB0-8DA3-4DD4-BAD8-E7EDBDA67910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18968,7 +18924,6 @@
       <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
       <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19011,7 +18966,7 @@
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>188023039078421.66</v>
+        <v>201033808519699.41</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -19019,15 +18974,15 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>43081261657360.836</v>
+        <v>44985202764349.727</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>62639988008697.188</v>
+        <v>64730113102559.594</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>34302262995520.332</v>
+        <v>36463019416576.25</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -19194,11 +19149,11 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>3215758233897</v>
+        <v>2572606587117.6001</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>357306470433</v>
+        <v>285845176346.40002</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
@@ -19256,7 +19211,7 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>93462295881150</v>
+        <v>97405999818698.172</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>

--- a/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
+++ b/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\bldgs\SYCEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\bldgs\SYCEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05AC44-7158-41E7-8A4F-6C2251B5F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21150" yWindow="2250" windowWidth="20655" windowHeight="12825" tabRatio="776"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="SYCEU-rural-residential" sheetId="30" r:id="rId4"/>
     <sheet name="SYCEU-commercial" sheetId="31" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -224,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -498,23 +500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="11"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Footnotes: top row 2" xfId="9"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: bottom row 2" xfId="12"/>
-    <cellStyle name="Header: top rows" xfId="16"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Header: top rows" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="5"/>
-    <cellStyle name="Parent row 2" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Parent row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
-    <cellStyle name="Table title 2" xfId="14"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Table title 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,6 +607,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -640,6 +659,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,26 +851,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="61.3984375" customWidth="1"/>
-    <col min="3" max="3" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,296 +878,296 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1139,24 +1175,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:AK151"/>
+  <dimension ref="A1:AK152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AK151"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
-    <col min="3" max="3" width="28.9296875" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1305,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1280,109 +1316,109 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2019</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2028</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2033</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2042</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>2045</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2046</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1393,109 +1429,109 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>74230285047056.813</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>91643082695721.781</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>109587364276842.95</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>128031299879787.19</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>146945551519411.75</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>166303033955045.44</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>192492988790209.22</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>219368112497386.44</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>246894155819425.25</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>275039114759746.59</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>303773049559922.25</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>347031244685422.31</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>391305297527429.94</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>436540917939471.88</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>482687616613124.5</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>529698378179998.69</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>577735138666221.5</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>626689319829865.75</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>676520158635472.38</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>727189271725549.88</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>778660484266480.25</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>824214548292469.5</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>870345594152197.63</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>917026050237283.25</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>964230074108969.88</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1011933419033317.8</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1053986890732340.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1096407996867464.3</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1139182076949038.8</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1182295239767742.8</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1225734313589812.8</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1269486800172233.5</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1313540832260254.8</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1357885134263517.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1506,109 +1542,109 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>54075037063113.539</v>
+        <v>75707591203597.641</v>
       </c>
       <c r="E4">
-        <v>57766719469841.469</v>
+        <v>91902822070463.688</v>
       </c>
       <c r="F4">
-        <v>61512346478346.055</v>
+        <v>108582158183514.91</v>
       </c>
       <c r="G4">
-        <v>65308687413626.922</v>
+        <v>125716607082618.22</v>
       </c>
       <c r="H4">
-        <v>69152764526350.734</v>
+        <v>143279446092537.81</v>
       </c>
       <c r="I4">
-        <v>73041828716436.047</v>
+        <v>161246004463505.91</v>
       </c>
       <c r="J4">
-        <v>74729622534776.266</v>
+        <v>183121954451344.78</v>
       </c>
       <c r="K4">
-        <v>76386388534209.453</v>
+        <v>205543267694666.69</v>
       </c>
       <c r="L4">
-        <v>78013677689673.328</v>
+        <v>228482683342692.94</v>
       </c>
       <c r="M4">
-        <v>79612939299656.844</v>
+        <v>251914727669929.66</v>
       </c>
       <c r="N4">
-        <v>81185529183783.313</v>
+        <v>275815569990553.44</v>
       </c>
       <c r="O4">
-        <v>82525545540012.594</v>
+        <v>309825728299365.69</v>
       </c>
       <c r="P4">
-        <v>83816866720996.344</v>
+        <v>344593259699620.38</v>
       </c>
       <c r="Q4">
-        <v>85062095126807.094</v>
+        <v>380077688152791.69</v>
       </c>
       <c r="R4">
-        <v>86263650964214.594</v>
+        <v>416241371336550.63</v>
       </c>
       <c r="S4">
-        <v>87423787916551.125</v>
+        <v>453049256925829.44</v>
       </c>
       <c r="T4">
-        <v>89697560286899.719</v>
+        <v>490133662602444.44</v>
       </c>
       <c r="U4">
-        <v>91958966159749.688</v>
+        <v>527886837360879.56</v>
       </c>
       <c r="V4">
-        <v>94208555006012.844</v>
+        <v>566279066307556.63</v>
       </c>
       <c r="W4">
-        <v>96446844219405.078</v>
+        <v>605282369254782.38</v>
       </c>
       <c r="X4">
-        <v>98674321423544.391</v>
+        <v>644870375955125</v>
       </c>
       <c r="Y4">
-        <v>100905146513137.19</v>
+        <v>684003294265019.75</v>
       </c>
       <c r="Z4">
-        <v>103113044899327.94</v>
+        <v>723652182062420.13</v>
       </c>
       <c r="AA4">
-        <v>105299112155756.11</v>
+        <v>763792383270108.5</v>
       </c>
       <c r="AB4">
-        <v>107464375146517.8</v>
+        <v>804400788131239.63</v>
       </c>
       <c r="AC4">
-        <v>109609797329462.06</v>
+        <v>845455713857635.38</v>
       </c>
       <c r="AD4">
-        <v>111533661247571.92</v>
+        <v>886908459339735.88</v>
       </c>
       <c r="AE4">
-        <v>113430719398812.42</v>
+        <v>928828330435435</v>
       </c>
       <c r="AF4">
-        <v>115302040740899.7</v>
+        <v>971196699155758.88</v>
       </c>
       <c r="AG4">
-        <v>117148638140101.52</v>
+        <v>1013995914978769.8</v>
       </c>
       <c r="AH4">
-        <v>118971472002705.44</v>
+        <v>1057209241566381.3</v>
       </c>
       <c r="AI4">
-        <v>120771453627970.27</v>
+        <v>1100820798334877.9</v>
       </c>
       <c r="AJ4">
-        <v>122549448307154.59</v>
+        <v>1144815506450202</v>
       </c>
       <c r="AK4">
-        <v>124306278190787.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+        <v>1189179038862035.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1619,109 +1655,109 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>149920662784308.41</v>
+        <v>56229782876265.461</v>
       </c>
       <c r="E5">
-        <v>167016388205793.28</v>
+        <v>60068568967824.883</v>
       </c>
       <c r="F5">
-        <v>184515887016970.88</v>
+        <v>63963449209476.297</v>
       </c>
       <c r="G5">
-        <v>202394977732522.09</v>
+        <v>67911064192448.445</v>
       </c>
       <c r="H5">
-        <v>220631372006582.59</v>
+        <v>71908317512049.531</v>
       </c>
       <c r="I5">
-        <v>239204492924651.94</v>
+        <v>75952350523901.609</v>
       </c>
       <c r="J5">
-        <v>257018902328881.63</v>
+        <v>77707398418448.703</v>
       </c>
       <c r="K5">
-        <v>275147265180683.03</v>
+        <v>79430182118368.797</v>
       </c>
       <c r="L5">
-        <v>293573888017029.94</v>
+        <v>81122314400808.828</v>
       </c>
       <c r="M5">
-        <v>312284106183016.13</v>
+        <v>82785302314931.984</v>
       </c>
       <c r="N5">
-        <v>331264200884978.81</v>
+        <v>84420555706152.703</v>
       </c>
       <c r="O5">
-        <v>350423137075627.31</v>
+        <v>85813968135504.797</v>
       </c>
       <c r="P5">
-        <v>369812279704753.25</v>
+        <v>87156745016924.047</v>
       </c>
       <c r="Q5">
-        <v>389419325926135.94</v>
+        <v>88451592449175.922</v>
       </c>
       <c r="R5">
-        <v>409232834212401.88</v>
+        <v>89701027077806.453</v>
       </c>
       <c r="S5">
-        <v>429242150275718.63</v>
+        <v>90907392389409.984</v>
       </c>
       <c r="T5">
-        <v>443902573015588.88</v>
+        <v>93271768516337.609</v>
       </c>
       <c r="U5">
-        <v>458603552154623.13</v>
+        <v>95623285373867.5</v>
       </c>
       <c r="V5">
-        <v>473343285682056.13</v>
+        <v>97962514327859.875</v>
       </c>
       <c r="W5">
-        <v>488120076785498.13</v>
+        <v>100289993388788.42</v>
       </c>
       <c r="X5">
-        <v>502932326284741</v>
+        <v>102606229610770.09</v>
       </c>
       <c r="Y5">
-        <v>517311802953271.75</v>
+        <v>104925947122499.64</v>
       </c>
       <c r="Z5">
-        <v>531656022830406.81</v>
+        <v>107221824362925.03</v>
       </c>
       <c r="AA5">
-        <v>545966670694396.81</v>
+        <v>109495000561369.42</v>
       </c>
       <c r="AB5">
-        <v>560245325661639.63</v>
+        <v>111746543499720.84</v>
       </c>
       <c r="AC5">
-        <v>574493469342103.25</v>
+        <v>113977455027050.52</v>
       </c>
       <c r="AD5">
-        <v>587912758907986.38</v>
+        <v>115977979784389.83</v>
       </c>
       <c r="AE5">
-        <v>601276020002485.13</v>
+        <v>117950630636638</v>
       </c>
       <c r="AF5">
-        <v>614585486923428.75</v>
+        <v>119896519136621.41</v>
       </c>
       <c r="AG5">
-        <v>627843276728279.63</v>
+        <v>121816698510623.61</v>
       </c>
       <c r="AH5">
-        <v>641051396824487.5</v>
+        <v>123712167434557.83</v>
       </c>
       <c r="AI5">
-        <v>654211751977724.38</v>
+        <v>125583873520524.59</v>
       </c>
       <c r="AJ5">
-        <v>667326150789352</v>
+        <v>127432716539328.33</v>
       </c>
       <c r="AK5">
-        <v>680396311689498.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+        <v>129259551402001.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1732,109 +1768,109 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>29793011115519.977</v>
+        <v>148581647973829.63</v>
       </c>
       <c r="E6">
-        <v>35404039443898.594</v>
+        <v>162990416968987.22</v>
       </c>
       <c r="F6">
-        <v>41177332674277.922</v>
+        <v>177705449082780.09</v>
       </c>
       <c r="G6">
-        <v>47103172963814.195</v>
+        <v>192708402598552.16</v>
       </c>
       <c r="H6">
-        <v>53172603267913.289</v>
+        <v>207982371750624.06</v>
       </c>
       <c r="I6">
-        <v>59377354316979.602</v>
+        <v>223511748898255.66</v>
       </c>
       <c r="J6">
-        <v>69272240663100.359</v>
+        <v>237889301215136.03</v>
       </c>
       <c r="K6">
-        <v>79430158798496.203</v>
+        <v>252483497817562.19</v>
       </c>
       <c r="L6">
-        <v>89837960660320.25</v>
+        <v>267283509395930.06</v>
       </c>
       <c r="M6">
-        <v>100483360126379.77</v>
+        <v>282279216572002.88</v>
       </c>
       <c r="N6">
-        <v>111354863521828.44</v>
+        <v>297461152661229.69</v>
       </c>
       <c r="O6">
-        <v>128125013620367.75</v>
+        <v>312954554098246.19</v>
       </c>
       <c r="P6">
-        <v>145296146778824.19</v>
+        <v>328601086759398.81</v>
       </c>
       <c r="Q6">
-        <v>162846833392734.06</v>
+        <v>344392566903542.69</v>
       </c>
       <c r="R6">
-        <v>180757144138279.78</v>
+        <v>360321383730979.38</v>
       </c>
       <c r="S6">
-        <v>199008520937914.25</v>
+        <v>376380450106575.94</v>
       </c>
       <c r="T6">
-        <v>223066884817559.03</v>
+        <v>390640379676475.81</v>
       </c>
       <c r="U6">
-        <v>247644031382081.78</v>
+        <v>404976565913449.5</v>
       </c>
       <c r="V6">
-        <v>272716909966177.41</v>
+        <v>419385620564648.44</v>
       </c>
       <c r="W6">
-        <v>298263815563905.69</v>
+        <v>433864353177765.19</v>
       </c>
       <c r="X6">
-        <v>324264292044539</v>
+        <v>448409756874592.5</v>
       </c>
       <c r="Y6">
-        <v>350542263118357.31</v>
+        <v>465004847557135</v>
       </c>
       <c r="Z6">
-        <v>377258663298046.69</v>
+        <v>481670853253856.31</v>
       </c>
       <c r="AA6">
-        <v>404392541844948.06</v>
+        <v>498404385225483.06</v>
       </c>
       <c r="AB6">
-        <v>431924261958288.25</v>
+        <v>515202267259521.5</v>
       </c>
       <c r="AC6">
-        <v>459835399359766.75</v>
+        <v>532061519266507</v>
       </c>
       <c r="AD6">
-        <v>487818404036012.81</v>
+        <v>548835795862136.13</v>
       </c>
       <c r="AE6">
-        <v>516193152541366.88</v>
+        <v>565668232320714.88</v>
       </c>
       <c r="AF6">
-        <v>544944022954195.81</v>
+        <v>582556509348982.88</v>
       </c>
       <c r="AG6">
-        <v>574056213082435.75</v>
+        <v>599498429354033.13</v>
       </c>
       <c r="AH6">
-        <v>603515687392654.75</v>
+        <v>616491908564171.38</v>
       </c>
       <c r="AI6">
-        <v>633309128009548.13</v>
+        <v>633534969754121.25</v>
       </c>
       <c r="AJ6">
-        <v>663423889426168.38</v>
+        <v>650625735521107.88</v>
       </c>
       <c r="AK6">
-        <v>693847956601190.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+        <v>667762422063816.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1845,109 +1881,109 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>27499973956306.098</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>31767171709068.465</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>36150353509215.398</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>40642573216632.992</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>45237428496177.758</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>49929008621963.914</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>57089894114491.992</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>64432741151585.742</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>71948454095678.859</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>79628533587142.406</v>
       </c>
       <c r="N7">
-        <v>10</v>
+        <v>87465028469830.75</v>
       </c>
       <c r="O7">
-        <v>11</v>
+        <v>99318657071757.016</v>
       </c>
       <c r="P7">
-        <v>12</v>
+        <v>111445932658598.75</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>123832230805447.11</v>
       </c>
       <c r="R7">
-        <v>14</v>
+        <v>136463950939312.41</v>
       </c>
       <c r="S7">
-        <v>15</v>
+        <v>149328428280870.41</v>
       </c>
       <c r="T7">
-        <v>16</v>
+        <v>168469768523726.25</v>
       </c>
       <c r="U7">
-        <v>17</v>
+        <v>188031922584453.81</v>
       </c>
       <c r="V7">
-        <v>18</v>
+        <v>207996192771795.81</v>
       </c>
       <c r="W7">
-        <v>19</v>
+        <v>228344972934500.72</v>
       </c>
       <c r="X7">
-        <v>20</v>
+        <v>249061669954252.66</v>
       </c>
       <c r="Y7">
-        <v>21</v>
+        <v>271968155634660.75</v>
       </c>
       <c r="Z7">
-        <v>22</v>
+        <v>295285224039162.13</v>
       </c>
       <c r="AA7">
-        <v>23</v>
+        <v>318993255094100.19</v>
       </c>
       <c r="AB7">
-        <v>24</v>
+        <v>343073859210266.31</v>
       </c>
       <c r="AC7">
-        <v>25</v>
+        <v>367509782308785.44</v>
       </c>
       <c r="AD7">
-        <v>26</v>
+        <v>394559440559561.94</v>
       </c>
       <c r="AE7">
-        <v>27</v>
+        <v>422040820955622.31</v>
       </c>
       <c r="AF7">
-        <v>28</v>
+        <v>449936707324000.25</v>
       </c>
       <c r="AG7">
-        <v>29</v>
+        <v>478230786876494.75</v>
       </c>
       <c r="AH7">
-        <v>30</v>
+        <v>506907591722733.13</v>
       </c>
       <c r="AI7">
-        <v>31</v>
+        <v>535952444869051.06</v>
       </c>
       <c r="AJ7">
-        <v>32</v>
+        <v>565351410306808.25</v>
       </c>
       <c r="AK7">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+        <v>595091246833385.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1958,109 +1994,109 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>150709972671298.06</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>180699697898432.28</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>210157939193110.28</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>239116526465965.19</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>267604797702139.72</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>295649838142305.25</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>332850359944041.31</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>369365712873763.94</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>405230146188625.13</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>440475663885203.75</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>475132205721927.81</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>528330282482913.38</v>
+        <v>11</v>
       </c>
       <c r="P8">
-        <v>580512501527391.13</v>
+        <v>12</v>
       </c>
       <c r="Q8">
-        <v>631733153001834.63</v>
+        <v>13</v>
       </c>
       <c r="R8">
-        <v>682042726214667.5</v>
+        <v>14</v>
       </c>
       <c r="S8">
-        <v>731488236534279</v>
+        <v>15</v>
       </c>
       <c r="T8">
-        <v>777285479445858.13</v>
+        <v>16</v>
       </c>
       <c r="U8">
-        <v>822165301680015.75</v>
+        <v>17</v>
       </c>
       <c r="V8">
-        <v>866168466272211.13</v>
+        <v>18</v>
       </c>
       <c r="W8">
-        <v>909333356579935.5</v>
+        <v>19</v>
       </c>
       <c r="X8">
-        <v>951696147436806.75</v>
+        <v>20</v>
       </c>
       <c r="Y8">
-        <v>981709681667374.13</v>
+        <v>21</v>
       </c>
       <c r="Z8">
-        <v>1011146234064202.8</v>
+        <v>22</v>
       </c>
       <c r="AA8">
-        <v>1040033376235673.6</v>
+        <v>23</v>
       </c>
       <c r="AB8">
-        <v>1068396950620544</v>
+        <v>24</v>
       </c>
       <c r="AC8">
-        <v>1096261203952752.5</v>
+        <v>25</v>
       </c>
       <c r="AD8">
-        <v>1113248930632913.5</v>
+        <v>26</v>
       </c>
       <c r="AE8">
-        <v>1129869022876973.3</v>
+        <v>27</v>
       </c>
       <c r="AF8">
-        <v>1146136141174582.5</v>
+        <v>28</v>
       </c>
       <c r="AG8">
-        <v>1162064176735062.5</v>
+        <v>29</v>
       </c>
       <c r="AH8">
-        <v>1177666301292176</v>
+        <v>30</v>
       </c>
       <c r="AI8">
-        <v>1192955013088939.3</v>
+        <v>31</v>
       </c>
       <c r="AJ8">
-        <v>1207942179380101.5</v>
+        <v>32</v>
       </c>
       <c r="AK8">
-        <v>1222639075756022.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2071,109 +2107,109 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>109788711612988.75</v>
+        <v>153709351837608.28</v>
       </c>
       <c r="E9">
-        <v>113903073202393.92</v>
+        <v>181211845953338.09</v>
       </c>
       <c r="F9">
-        <v>117963490190022.45</v>
+        <v>208230234822882.81</v>
       </c>
       <c r="G9">
-        <v>121973193250874.67</v>
+        <v>234793510906375.34</v>
       </c>
       <c r="H9">
-        <v>125935160134283.95</v>
+        <v>260928396879051.69</v>
       </c>
       <c r="I9">
-        <v>129852139940331.77</v>
+        <v>286659563490679.44</v>
       </c>
       <c r="J9">
-        <v>129219157100270.34</v>
+        <v>316646381958440.81</v>
       </c>
       <c r="K9">
-        <v>128617202079115.92</v>
+        <v>346087837170719.06</v>
       </c>
       <c r="L9">
-        <v>128044723901930.86</v>
+        <v>375011189978293.19</v>
       </c>
       <c r="M9">
-        <v>127500273270226.16</v>
+        <v>403441914106656.69</v>
       </c>
       <c r="N9">
-        <v>126982494364378.53</v>
+        <v>431403840241633.25</v>
       </c>
       <c r="O9">
-        <v>125639248496874.38</v>
+        <v>471687541279634.88</v>
       </c>
       <c r="P9">
-        <v>124344697804615.75</v>
+        <v>511213869226194.19</v>
       </c>
       <c r="Q9">
-        <v>123096239887530.16</v>
+        <v>550023300119836.69</v>
       </c>
       <c r="R9">
-        <v>121891454538847.78</v>
+        <v>588153476282891.63</v>
       </c>
       <c r="S9">
-        <v>120728088075236.48</v>
+        <v>625639450040427</v>
       </c>
       <c r="T9">
-        <v>120679194472550.06</v>
+        <v>659426358950615.75</v>
       </c>
       <c r="U9">
-        <v>120642667367362.22</v>
+        <v>692544498778984.38</v>
       </c>
       <c r="V9">
-        <v>120617957288761.23</v>
+        <v>725023584419111.38</v>
       </c>
       <c r="W9">
-        <v>120604546843031.14</v>
+        <v>756891596058689.25</v>
       </c>
       <c r="X9">
-        <v>120601948406553.98</v>
+        <v>788174903945150.75</v>
       </c>
       <c r="Y9">
-        <v>120186618238217.19</v>
+        <v>814706143762547.5</v>
       </c>
       <c r="Z9">
-        <v>119794214773282.45</v>
+        <v>840721414092438.38</v>
       </c>
       <c r="AA9">
-        <v>119423642438110.28</v>
+        <v>866245371012041.5</v>
       </c>
       <c r="AB9">
-        <v>119073874368604.59</v>
+        <v>891301124278201.88</v>
       </c>
       <c r="AC9">
-        <v>118743947106916.33</v>
+        <v>915910356679097.88</v>
       </c>
       <c r="AD9">
-        <v>117804813518278.09</v>
+        <v>936776256527447.63</v>
       </c>
       <c r="AE9">
-        <v>116892485696509.19</v>
+        <v>957175030762198.63</v>
       </c>
       <c r="AF9">
-        <v>116005894683893.52</v>
+        <v>977125307372325.25</v>
       </c>
       <c r="AG9">
-        <v>115144027614163.31</v>
+        <v>996644736879764.88</v>
       </c>
       <c r="AH9">
-        <v>114305924081031</v>
+        <v>1015750055622604</v>
       </c>
       <c r="AI9">
-        <v>113490672785237.77</v>
+        <v>1034457144184557.6</v>
       </c>
       <c r="AJ9">
-        <v>112697408435525.05</v>
+        <v>1052781081399683.8</v>
       </c>
       <c r="AK9">
-        <v>111925308881363.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+        <v>1070736194318301.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -2184,109 +2220,109 @@
         <v>33</v>
       </c>
       <c r="D10">
-        <v>304384375956021.94</v>
+        <v>114163498566963.89</v>
       </c>
       <c r="E10">
-        <v>329319027744611.56</v>
+        <v>118441806477815.25</v>
       </c>
       <c r="F10">
-        <v>353849906143508.56</v>
+        <v>122664020238574.63</v>
       </c>
       <c r="G10">
-        <v>378001192638031.88</v>
+        <v>126833499258013.27</v>
       </c>
       <c r="H10">
-        <v>401795175574045.94</v>
+        <v>130953339940822.98</v>
       </c>
       <c r="I10">
-        <v>425252431866051.19</v>
+        <v>135026400931381.67</v>
       </c>
       <c r="J10">
-        <v>444425714880592.75</v>
+        <v>134368195415599.73</v>
       </c>
       <c r="K10">
-        <v>463285044447562.5</v>
+        <v>133742254094444.73</v>
       </c>
       <c r="L10">
-        <v>481846114029986.75</v>
+        <v>133146964190769.88</v>
       </c>
       <c r="M10">
-        <v>500123588282771.75</v>
+        <v>132580818655411.83</v>
       </c>
       <c r="N10">
-        <v>518131185999580.13</v>
+        <v>132042407642956.28</v>
       </c>
       <c r="O10">
-        <v>533494196372837.31</v>
+        <v>130645637014929.8</v>
       </c>
       <c r="P10">
-        <v>548627000307617.25</v>
+        <v>129299501934836.17</v>
       </c>
       <c r="Q10">
-        <v>563541900650140.38</v>
+        <v>128001296303909.94</v>
       </c>
       <c r="R10">
-        <v>578250338927780.13</v>
+        <v>126748503476605.03</v>
       </c>
       <c r="S10">
-        <v>592762969428369.5</v>
+        <v>125538779966327.23</v>
       </c>
       <c r="T10">
-        <v>597227001096455</v>
+        <v>125487938084149.94</v>
       </c>
       <c r="U10">
-        <v>601650476365376.63</v>
+        <v>125449955471370.34</v>
       </c>
       <c r="V10">
-        <v>606035197245899.38</v>
+        <v>125424260762128.3</v>
       </c>
       <c r="W10">
-        <v>610382860550413.25</v>
+        <v>125410315945950.06</v>
       </c>
       <c r="X10">
-        <v>614695065459126.38</v>
+        <v>125407613968718.7</v>
       </c>
       <c r="Y10">
-        <v>616162389334364.25</v>
+        <v>124975734002362.28</v>
       </c>
       <c r="Z10">
-        <v>617664970000997.75</v>
+        <v>124567694307309.98</v>
       </c>
       <c r="AA10">
-        <v>619201122680776.25</v>
+        <v>124182355654238.66</v>
       </c>
       <c r="AB10">
-        <v>620769268257302.13</v>
+        <v>123818650261260.36</v>
       </c>
       <c r="AC10">
-        <v>622367925120607.13</v>
+        <v>123475576279303.8</v>
       </c>
       <c r="AD10">
-        <v>620969061299236</v>
+        <v>122499020725226.17</v>
       </c>
       <c r="AE10">
-        <v>619626225949249.5</v>
+        <v>121550339076239.66</v>
       </c>
       <c r="AF10">
-        <v>618337184772818.13</v>
+        <v>120628419779517.92</v>
       </c>
       <c r="AG10">
-        <v>617099820712479.75</v>
+        <v>119732209608777.39</v>
       </c>
       <c r="AH10">
-        <v>615912126360783.75</v>
+        <v>118860709888104.86</v>
       </c>
       <c r="AI10">
-        <v>614772196952059.38</v>
+        <v>118012973005399.77</v>
       </c>
       <c r="AJ10">
-        <v>613678223884943.88</v>
+        <v>117188099189857.67</v>
       </c>
       <c r="AK10">
-        <v>612628488729310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+        <v>116385233530446.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2297,109 +2333,109 @@
         <v>34</v>
       </c>
       <c r="D11">
-        <v>60488840749692.438</v>
+        <v>301665770128686.19</v>
       </c>
       <c r="E11">
-        <v>69808861113260.156</v>
+        <v>321380711345390.31</v>
       </c>
       <c r="F11">
-        <v>78966616574827.188</v>
+        <v>340789389443459.06</v>
       </c>
       <c r="G11">
-        <v>87971824977237.266</v>
+        <v>359910146139548.63</v>
       </c>
       <c r="H11">
-        <v>96833443365084.516</v>
+        <v>378759887199338.5</v>
       </c>
       <c r="I11">
-        <v>105559741007964.56</v>
+        <v>397354220263568.75</v>
       </c>
       <c r="J11">
-        <v>119782493813177.11</v>
+        <v>411347654966235.81</v>
       </c>
       <c r="K11">
-        <v>133742214829114.53</v>
+        <v>425124445383357</v>
       </c>
       <c r="L11">
-        <v>147452052118623.84</v>
+        <v>438695420824536.69</v>
       </c>
       <c r="M11">
-        <v>160924291803897.63</v>
+        <v>452070700668011.31</v>
       </c>
       <c r="N11">
-        <v>174170427559782.25</v>
+        <v>465259751598331.75</v>
       </c>
       <c r="O11">
-        <v>195061181596308.19</v>
+        <v>476450955074438.44</v>
       </c>
       <c r="P11">
-        <v>215550952572916.97</v>
+        <v>487489027326409</v>
       </c>
       <c r="Q11">
-        <v>235661170094072.28</v>
+        <v>498382152095388.31</v>
       </c>
       <c r="R11">
-        <v>255411763483591.78</v>
+        <v>509137940181074.69</v>
       </c>
       <c r="S11">
-        <v>274821290819022.63</v>
+        <v>519763478718601.44</v>
       </c>
       <c r="T11">
-        <v>300114427718896.5</v>
+        <v>525567988661262.56</v>
       </c>
       <c r="U11">
-        <v>324888781933892.38</v>
+        <v>531296241936849.5</v>
       </c>
       <c r="V11">
-        <v>349167404129315.44</v>
+        <v>536951626798211.63</v>
       </c>
       <c r="W11">
-        <v>372971999311105.69</v>
+        <v>542537333697655.63</v>
       </c>
       <c r="X11">
-        <v>396323023609991.13</v>
+        <v>548056369513389.38</v>
       </c>
       <c r="Y11">
-        <v>417525672471835.5</v>
+        <v>553860353247627.56</v>
       </c>
       <c r="Z11">
-        <v>438289892227808.81</v>
+        <v>559593421967687</v>
       </c>
       <c r="AA11">
-        <v>458636633616570.06</v>
+        <v>565258964412840.88</v>
       </c>
       <c r="AB11">
-        <v>478585533438892.56</v>
+        <v>570860156795583.13</v>
       </c>
       <c r="AC11">
-        <v>498155015973076.88</v>
+        <v>576399979205378.13</v>
       </c>
       <c r="AD11">
-        <v>515246746815617.31</v>
+        <v>579694935685635.63</v>
       </c>
       <c r="AE11">
-        <v>531946733829049.81</v>
+        <v>582931732302943.25</v>
       </c>
       <c r="AF11">
-        <v>548270598935007.31</v>
+        <v>586112688350562</v>
       </c>
       <c r="AG11">
-        <v>564233144325554</v>
+        <v>589240001421398.5</v>
       </c>
       <c r="AH11">
-        <v>579848405534120.88</v>
+        <v>592315755287146.5</v>
       </c>
       <c r="AI11">
-        <v>595129700436014</v>
+        <v>595341927173083.38</v>
       </c>
       <c r="AJ11">
-        <v>610089674538180.25</v>
+        <v>598320394481983.38</v>
       </c>
       <c r="AK11">
-        <v>624740342881944.38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+        <v>601252941015161.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2410,109 +2446,109 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>55833280456743.031</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>62637769944684.258</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>69326275385240.938</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>75905742918526.922</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>82382574879685.75</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>88762681994603.203</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>98717319132520.969</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>108489994725873.05</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>118089804412225.78</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>127525247551208.06</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>136804275298965.5</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>151205561315122.72</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>165333200346364.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>179201816817599.66</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>192825011301817.84</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>206215448578343.47</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>226659408498868.13</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>246682554601521</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>266303584577559.59</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>285540104578235.06</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>304408707721863.63</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>323937222468225.56</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>343055154490494.19</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>361782123862326.13</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>380136520172930.06</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>398135597501181.19</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>416744154160071.63</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>434920988673678.19</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>452683317214967.38</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>470047452572139.94</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>487028862635568.38</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>503642224398917.56</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>519901473870827.44</v>
       </c>
       <c r="AK12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+        <v>535819852253917.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2523,109 +2559,109 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>188023039078421.66</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>201033808519699.41</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>214044577960977.16</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>227055347402254.91</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>240066116843532.66</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>253076886284810.44</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>275494965221976.53</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>297913044159142.63</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>320331123096308.75</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>342749202033474.88</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>365167280970640.94</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>404761284081012.56</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>444355287191384.25</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>483949290301755.88</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>523543293412127.56</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>563137296522499</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>630157785592617</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>697178274662735</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>764198763732853</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>831219252802971.13</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>898239741873089</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>979365362417898.75</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1060490982962708.5</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>1141616603507518.3</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1222742224052328.3</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1303867844597138</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1396189756212553.5</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1488511667827969</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1580833579443384.8</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1673155491058800.3</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1765477402674215.8</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>1857799314289631.3</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>1950121225905047</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>2042443137520462.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2636,109 +2672,109 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>43081261657360.836</v>
+        <v>177445085153086.25</v>
       </c>
       <c r="E14">
-        <v>44985202764349.727</v>
+        <v>178812501154953.03</v>
       </c>
       <c r="F14">
-        <v>46889143871338.617</v>
+        <v>180179917156819.81</v>
       </c>
       <c r="G14">
-        <v>48793084978327.508</v>
+        <v>181547333158686.56</v>
       </c>
       <c r="H14">
-        <v>50697026085316.398</v>
+        <v>182914749160553.34</v>
       </c>
       <c r="I14">
-        <v>52600967192305.289</v>
+        <v>184282165162420.09</v>
       </c>
       <c r="J14">
-        <v>55903211044125.922</v>
+        <v>185646286336659.16</v>
       </c>
       <c r="K14">
-        <v>59205454895946.563</v>
+        <v>187010407510898.25</v>
       </c>
       <c r="L14">
-        <v>62507698747767.203</v>
+        <v>188374528685137.31</v>
       </c>
       <c r="M14">
-        <v>65809942599587.844</v>
+        <v>189738649859376.41</v>
       </c>
       <c r="N14">
-        <v>69112186451408.5</v>
+        <v>191102771033615.5</v>
       </c>
       <c r="O14">
-        <v>74797307676823.156</v>
+        <v>192463022924947.94</v>
       </c>
       <c r="P14">
-        <v>80482428902237.828</v>
+        <v>193823274816280.38</v>
       </c>
       <c r="Q14">
-        <v>86167550127652.484</v>
+        <v>195183526707612.81</v>
       </c>
       <c r="R14">
-        <v>91852671353067.156</v>
+        <v>196543778598945.22</v>
       </c>
       <c r="S14">
-        <v>97537792578481.828</v>
+        <v>197904030490277.63</v>
       </c>
       <c r="T14">
-        <v>109978025329378.34</v>
+        <v>199259799203841.03</v>
       </c>
       <c r="U14">
-        <v>122418258080274.84</v>
+        <v>200615567917404.47</v>
       </c>
       <c r="V14">
-        <v>134858490831171.34</v>
+        <v>201971336630967.88</v>
       </c>
       <c r="W14">
-        <v>147298723582067.84</v>
+        <v>203327105344531.28</v>
       </c>
       <c r="X14">
-        <v>159738956332964.38</v>
+        <v>204682874058094.75</v>
       </c>
       <c r="Y14">
-        <v>175780860712382.13</v>
+        <v>206659910344727.47</v>
       </c>
       <c r="Z14">
-        <v>191822765091799.84</v>
+        <v>208636946631360.16</v>
       </c>
       <c r="AA14">
-        <v>207864669471217.56</v>
+        <v>210613982917992.88</v>
       </c>
       <c r="AB14">
-        <v>223906573850635.28</v>
+        <v>212591019204625.56</v>
       </c>
       <c r="AC14">
-        <v>239948478230053</v>
+        <v>214568055491258.22</v>
       </c>
       <c r="AD14">
-        <v>259916496580299.41</v>
+        <v>216538686972422.84</v>
       </c>
       <c r="AE14">
-        <v>279884514930545.78</v>
+        <v>218509318453587.47</v>
       </c>
       <c r="AF14">
-        <v>299852533280792.19</v>
+        <v>220479949934752.09</v>
       </c>
       <c r="AG14">
-        <v>319820551631038.56</v>
+        <v>222450581415916.72</v>
       </c>
       <c r="AH14">
-        <v>339788569981285</v>
+        <v>224421212897081.31</v>
       </c>
       <c r="AI14">
-        <v>359756588331531.44</v>
+        <v>226391844378245.94</v>
       </c>
       <c r="AJ14">
-        <v>379724606681777.88</v>
+        <v>228362475859410.56</v>
       </c>
       <c r="AK14">
-        <v>399692625032024.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+        <v>230333107340575.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2749,109 +2785,109 @@
         <v>33</v>
       </c>
       <c r="D15">
-        <v>62639988008697.188</v>
+        <v>44049576261871.961</v>
       </c>
       <c r="E15">
-        <v>64730113102559.594</v>
+        <v>44206175299044.531</v>
       </c>
       <c r="F15">
-        <v>66820238196422</v>
+        <v>44362774336217.094</v>
       </c>
       <c r="G15">
-        <v>68910363290284.414</v>
+        <v>44519373373389.664</v>
       </c>
       <c r="H15">
-        <v>71000488384146.813</v>
+        <v>44675972410562.227</v>
       </c>
       <c r="I15">
-        <v>73090613478009.234</v>
+        <v>44832571447734.797</v>
       </c>
       <c r="J15">
-        <v>75108565002870</v>
+        <v>44979515803745.586</v>
       </c>
       <c r="K15">
-        <v>77126516527730.766</v>
+        <v>45126460159756.383</v>
       </c>
       <c r="L15">
-        <v>79144468052591.531</v>
+        <v>45273404515767.18</v>
       </c>
       <c r="M15">
-        <v>81162419577452.281</v>
+        <v>45420348871777.969</v>
       </c>
       <c r="N15">
-        <v>83180371102313.031</v>
+        <v>45567293227788.781</v>
       </c>
       <c r="O15">
-        <v>85451969277895.172</v>
+        <v>45704913932345.984</v>
       </c>
       <c r="P15">
-        <v>87723567453477.313</v>
+        <v>45842534636903.188</v>
       </c>
       <c r="Q15">
-        <v>89995165629059.438</v>
+        <v>45980155341460.383</v>
       </c>
       <c r="R15">
-        <v>92266763804641.578</v>
+        <v>46117776046017.586</v>
       </c>
       <c r="S15">
-        <v>94538361980223.734</v>
+        <v>46255396750574.766</v>
       </c>
       <c r="T15">
-        <v>96657695080164.438</v>
+        <v>46384015226107.18</v>
       </c>
       <c r="U15">
-        <v>98777028180105.156</v>
+        <v>46512633701639.602</v>
       </c>
       <c r="V15">
-        <v>100896361280045.86</v>
+        <v>46641252177172.016</v>
       </c>
       <c r="W15">
-        <v>103015694379986.56</v>
+        <v>46769870652704.43</v>
       </c>
       <c r="X15">
-        <v>105135027479927.25</v>
+        <v>46898489128236.859</v>
       </c>
       <c r="Y15">
-        <v>107486717897929.27</v>
+        <v>47159136793428.031</v>
       </c>
       <c r="Z15">
-        <v>109838408315931.28</v>
+        <v>47419784458619.211</v>
       </c>
       <c r="AA15">
-        <v>112190098733933.31</v>
+        <v>47680432123810.383</v>
       </c>
       <c r="AB15">
-        <v>114541789151935.33</v>
+        <v>47941079789001.563</v>
       </c>
       <c r="AC15">
-        <v>116893479569937.33</v>
+        <v>48201727454192.719</v>
       </c>
       <c r="AD15">
-        <v>119022108802689.92</v>
+        <v>48448391762707.898</v>
       </c>
       <c r="AE15">
-        <v>121150738035442.52</v>
+        <v>48695056071223.078</v>
       </c>
       <c r="AF15">
-        <v>123279367268195.09</v>
+        <v>48941720379738.266</v>
       </c>
       <c r="AG15">
-        <v>125407996500947.7</v>
+        <v>49188384688253.445</v>
       </c>
       <c r="AH15">
-        <v>127536625733700.27</v>
+        <v>49435048996768.633</v>
       </c>
       <c r="AI15">
-        <v>129665254966452.84</v>
+        <v>49681713305283.82</v>
       </c>
       <c r="AJ15">
-        <v>131793884199205.42</v>
+        <v>49928377613799</v>
       </c>
       <c r="AK15">
-        <v>133922513431957.98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+        <v>50175041922314.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2862,109 +2898,109 @@
         <v>34</v>
       </c>
       <c r="D16">
-        <v>34302262995520.332</v>
+        <v>71492998265575.063</v>
       </c>
       <c r="E16">
-        <v>36463019416576.25</v>
+        <v>73878524100758.688</v>
       </c>
       <c r="F16">
-        <v>38623775837632.164</v>
+        <v>76264049935942.328</v>
       </c>
       <c r="G16">
-        <v>40784532258688.078</v>
+        <v>78649575771125.953</v>
       </c>
       <c r="H16">
-        <v>42945288679743.992</v>
+        <v>81035101606309.594</v>
       </c>
       <c r="I16">
-        <v>45106045100799.914</v>
+        <v>83420627441493.234</v>
       </c>
       <c r="J16">
-        <v>47106596253963.578</v>
+        <v>85723779301082.578</v>
       </c>
       <c r="K16">
-        <v>49107147407127.25</v>
+        <v>88026931160671.922</v>
       </c>
       <c r="L16">
-        <v>51107698560290.922</v>
+        <v>90330083020261.266</v>
       </c>
       <c r="M16">
-        <v>53108249713454.594</v>
+        <v>92633234879850.609</v>
       </c>
       <c r="N16">
-        <v>55108800866618.266</v>
+        <v>94936386739439.938</v>
       </c>
       <c r="O16">
-        <v>59657317373111.047</v>
+        <v>97529033538868.25</v>
       </c>
       <c r="P16">
-        <v>64205833879603.82</v>
+        <v>100121680338296.56</v>
       </c>
       <c r="Q16">
-        <v>68754350386096.602</v>
+        <v>102714327137724.89</v>
       </c>
       <c r="R16">
-        <v>73302866892589.375</v>
+        <v>105306973937153.2</v>
       </c>
       <c r="S16">
-        <v>77851383399082.156</v>
+        <v>107899620736581.56</v>
       </c>
       <c r="T16">
-        <v>87780758504476.172</v>
+        <v>110318482592321.38</v>
       </c>
       <c r="U16">
-        <v>97710133609870.203</v>
+        <v>112737344448061.17</v>
       </c>
       <c r="V16">
-        <v>107639508715264.22</v>
+        <v>115156206303800.98</v>
       </c>
       <c r="W16">
-        <v>117568883820658.25</v>
+        <v>117575068159540.8</v>
       </c>
       <c r="X16">
-        <v>127498258926052.25</v>
+        <v>119993930015280.58</v>
       </c>
       <c r="Y16">
-        <v>146855012292692.81</v>
+        <v>122677988622572.2</v>
       </c>
       <c r="Z16">
-        <v>166211765659333.41</v>
+        <v>125362047229863.83</v>
       </c>
       <c r="AA16">
-        <v>185568519025973.97</v>
+        <v>128046105837155.45</v>
       </c>
       <c r="AB16">
-        <v>204925272392614.53</v>
+        <v>130730164444447.08</v>
       </c>
       <c r="AC16">
-        <v>224282025759255.13</v>
+        <v>133414223051738.7</v>
       </c>
       <c r="AD16">
-        <v>233667180800503.63</v>
+        <v>135843694877692.81</v>
       </c>
       <c r="AE16">
-        <v>243052335841752.13</v>
+        <v>138273166703646.92</v>
       </c>
       <c r="AF16">
-        <v>252437490883000.63</v>
+        <v>140702638529601.03</v>
       </c>
       <c r="AG16">
-        <v>261822645924249.09</v>
+        <v>143132110355555.16</v>
       </c>
       <c r="AH16">
-        <v>271207800965497.56</v>
+        <v>145561582181509.25</v>
       </c>
       <c r="AI16">
-        <v>280592956006746.06</v>
+        <v>147991054007463.34</v>
       </c>
       <c r="AJ16">
-        <v>289978111047994.56</v>
+        <v>150420525833417.44</v>
       </c>
       <c r="AK16">
-        <v>299363266089243.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+        <v>152849997659371.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2975,109 +3011,109 @@
         <v>31</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>35058892059466.742</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>35174510988328.906</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>35290129917191.07</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>35405748846053.234</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>35521367774915.398</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>35636986703777.57</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>35764359081727.25</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>35891731459676.922</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>36019103837626.594</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36146476215576.266</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>36273848593525.938</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>36384176645696.539</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>36494504697867.133</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>36604832750037.734</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>36715160802208.328</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>36825488854378.945</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>36928716040947.695</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>37031943227516.438</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>37135170414085.188</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>37238397600653.938</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>37341624787222.695</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>38104026149552.969</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>38866427511883.242</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>39628828874213.516</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>40391230236543.789</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>41153631598874.047</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>40797054128090.398</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>40440476657306.75</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>40083899186523.102</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>39727321715739.453</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>39370744244955.813</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>39014166774172.164</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>38657589303388.516</v>
       </c>
       <c r="AK17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+        <v>38301011832604.867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3190,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3303,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -3529,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3642,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3755,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3868,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3981,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -4094,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -4207,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4320,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -4433,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4546,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -4659,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4772,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -4885,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -4998,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -5009,109 +5045,109 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>74865213239966.547</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>83736758498055.078</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>92608303756143.609</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>101479849014232.14</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>110351394272320.67</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>119222939530409.2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>132427357197860.36</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>145631774865311.5</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>158836192532762.66</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>172040610200213.84</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>185245027867665</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>197993472504138.28</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>210741917140611.56</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>223490361777084.84</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>236238806413558.13</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>248987251050031.41</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>258370779360617.41</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>267754307671203.38</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>277137835981789.38</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>286521364292375.38</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>295904892602961.38</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>306709814481139.94</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>317514736359318.5</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>328319658237497</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>339124580115675.56</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>349929501993854</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>365053207110864.19</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>380176912227874.31</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>395300617344884.5</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>410424322461894.63</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>425548027578904.81</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>440671732695914.94</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>455795437812925.13</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>470919142929935.31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -5122,109 +5158,109 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>80184126586128.922</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>89578934621423.188</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>98973742656717.438</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>108368550692011.69</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>117763358727305.95</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>127158166762600.19</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>141084893580449.75</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>155011620398299.34</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>168938347216148.91</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>182865074033998.47</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>196791800851848.06</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>208488231129266.31</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>220184661406684.5</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>231881091684102.72</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>243577521961520.94</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>255273952238939.19</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>267038199756235.28</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>278802447273531.38</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>290566694790827.5</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>302330942308123.56</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>314095189825419.63</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>328399264075721.5</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>342703338326023.31</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>357007412576325.19</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>371311486826627.06</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>385615561076928.88</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>394264883883413.25</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>402914206689897.63</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>411563529496381.94</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>420212852302866.31</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>428862175109350.63</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>437511497915834.94</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>446160820722319.25</v>
       </c>
       <c r="AK36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+        <v>454810143528803.56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5337,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5450,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -5563,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -5574,109 +5610,109 @@
         <v>33</v>
       </c>
       <c r="D40">
-        <v>30861817111245.664</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>34489590862747.207</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>38117364614248.75</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>41745138365750.289</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>45372912117251.828</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>49000685868753.359</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>52621922529799.117</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>56243159190844.875</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>59864395851890.633</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>63485632512936.383</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>67106869173982.148</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>69870846497310.469</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>72634823820638.781</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>75398801143967.109</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>78162778467295.422</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>80926755790623.734</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>83713487374078.578</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>86500218957533.422</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>89286950540988.266</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>92073682124443.109</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>94860413707897.922</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>97455438362067.813</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>100050463016237.69</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>102645487670407.56</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>105240512324577.45</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>107835536978747.33</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>112277828518791.45</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>116720120058835.59</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>121162411598879.72</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>125604703138923.86</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>130046994678967.95</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>134489286219012.08</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>138931577759056.22</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>143373869299100.34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5687,109 +5723,109 @@
         <v>34</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>46748945590050.391</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>50538424854252.664</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>54327904118454.945</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>58117383382657.219</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>61906862646859.5</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>65696341911061.789</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>68604097252157.945</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>71511852593254.109</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>74419607934350.266</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>77327363275446.422</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>80235118616542.594</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>84707701747919.906</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>89180284879297.203</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>93652868010674.516</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>98125451142051.813</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>102598034273429.13</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>107758716734769.25</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>112919399196109.36</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>118080081657449.48</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>123240764118789.63</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>128401446580129.73</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>131679474206248.84</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>134957501832367.97</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>138235529458487.09</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>141513557084606.22</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>144791584710725.34</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>147484341782628.72</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>150177098854532.13</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>152869855926435.53</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>155562612998338.94</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>158255370070242.28</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>160948127142145.69</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>163640884214049.06</v>
       </c>
       <c r="AK41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
+        <v>166333641285952.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -5902,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -6015,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -6128,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -6241,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -6354,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -6467,7 +6503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -6580,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -6693,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -6806,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -6919,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -7032,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -7145,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -7258,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -7371,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -7484,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -7597,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -7710,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -7823,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>36</v>
       </c>
@@ -7936,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -8049,7 +8085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -8162,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -8275,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -8388,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -8501,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -8614,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -8727,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -8840,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -8953,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9066,7 +9102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -9179,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -9292,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -9405,7 +9441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -9518,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -9631,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -9744,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -9857,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -9970,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>30</v>
       </c>
@@ -10083,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -10094,94 +10130,94 @@
         <v>33</v>
       </c>
       <c r="D80">
-        <v>467225402671796.38</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>447563177736256.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>427900952800715.75</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>408238727865175.44</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>388576502929635</v>
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>368914277994094.75</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>333472703760667.19</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>298031129527239.63</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>262589555293812.03</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>227147981060384.5</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>191706406826956.91</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>175264018185819.41</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>158821629544681.94</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>142379240903544.44</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>125936852262406.97</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>109494463621269.48</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>100896405982674.2</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>92298348344078.922</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>83700290705483.641</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>75102233066888.359</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>66504175428293.078</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>58331780326454.313</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>50159385224615.539</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>41986990122776.766</v>
+        <v>0</v>
       </c>
       <c r="AB80">
-        <v>33814595020937.996</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>25642199919099.223</v>
+        <v>0</v>
       </c>
       <c r="AD80">
-        <v>20513759935279.383</v>
+        <v>0</v>
       </c>
       <c r="AE80">
-        <v>15385319951459.537</v>
+        <v>0</v>
       </c>
       <c r="AF80">
-        <v>10256879967639.693</v>
+        <v>0</v>
       </c>
       <c r="AG80">
-        <v>5128439983819.8477</v>
+        <v>0</v>
       </c>
       <c r="AH80">
         <v>0</v>
@@ -10196,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -10207,64 +10243,64 @@
         <v>34</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>448840234951651.63</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>418270321010132.81</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>387700407068614</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>357130493127095.19</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>326560579185576.44</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>295990665244057.5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>260922613075159.56</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>225854560906261.63</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>190786508737363.69</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>155718456568465.75</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>120650404399567.88</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>108400711858526.14</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>96151019317484.406</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>83901326776442.672</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>71651634235400.938</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>59401941694359.227</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>47521553355487.391</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>35641165016615.539</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>23760776677743.695</v>
       </c>
       <c r="W81">
-        <v>0</v>
+        <v>11880388338871.848</v>
       </c>
       <c r="X81">
         <v>0</v>
@@ -10309,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>35</v>
       </c>
@@ -10422,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>35</v>
       </c>
@@ -10535,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>35</v>
       </c>
@@ -10648,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>35</v>
       </c>
@@ -10659,109 +10695,109 @@
         <v>33</v>
       </c>
       <c r="D85">
-        <v>3808536069842086.5</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>3612497415464614</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>3416458761087141.5</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>3220420106709669.5</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3024381452332197</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2828342797954725.5</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>2642482316162828.5</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>2456621834370931</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>2270761352579034</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>2084900870787136.8</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>1899040388995239.3</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>1821645591673983</v>
+        <v>0</v>
       </c>
       <c r="P85">
-        <v>1744250794352727.3</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1666855997031471.3</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1589461199710215.5</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>1512066402388959</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>1388475460285022</v>
+        <v>0</v>
       </c>
       <c r="U85">
-        <v>1264884518181084.5</v>
+        <v>0</v>
       </c>
       <c r="V85">
-        <v>1141293576077147.3</v>
+        <v>0</v>
       </c>
       <c r="W85">
-        <v>1017702633973210.1</v>
+        <v>0</v>
       </c>
       <c r="X85">
-        <v>894111691869272.88</v>
+        <v>0</v>
       </c>
       <c r="Y85">
-        <v>874026781566032.5</v>
+        <v>0</v>
       </c>
       <c r="Z85">
-        <v>853941871262792.13</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>833856960959551.75</v>
+        <v>0</v>
       </c>
       <c r="AB85">
-        <v>813772050656311.25</v>
+        <v>0</v>
       </c>
       <c r="AC85">
-        <v>793687140353070.88</v>
+        <v>0</v>
       </c>
       <c r="AD85">
-        <v>764513647204959.13</v>
+        <v>0</v>
       </c>
       <c r="AE85">
-        <v>735340154056847.25</v>
+        <v>0</v>
       </c>
       <c r="AF85">
-        <v>706166660908735.5</v>
+        <v>0</v>
       </c>
       <c r="AG85">
-        <v>676993167760623.75</v>
+        <v>0</v>
       </c>
       <c r="AH85">
-        <v>647819674612511.63</v>
+        <v>0</v>
       </c>
       <c r="AI85">
-        <v>618646181464399.75</v>
+        <v>0</v>
       </c>
       <c r="AJ85">
-        <v>589472688316287.88</v>
+        <v>0</v>
       </c>
       <c r="AK85">
-        <v>560299195168176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>35</v>
       </c>
@@ -10772,109 +10808,109 @@
         <v>34</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>3412665008044799.5</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3215860277605575</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>3019055547166350.5</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>2822250816727126.5</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2625446086287901.5</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2428641355848676.5</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>2257429096147900</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>2086216836447123.5</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1915004576746347.5</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>1743792317045570.8</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1572580057344794.3</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1449470302446548.5</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>1326360547548302.5</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1203250792650056.8</v>
       </c>
       <c r="R86">
-        <v>0</v>
+        <v>1080141037751811</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>957031282853565.25</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>872233912354528.88</v>
       </c>
       <c r="U86">
-        <v>0</v>
+        <v>787436541855492.5</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>702639171356456.25</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>617841800857419.88</v>
       </c>
       <c r="X86">
-        <v>0</v>
+        <v>533044430358383.31</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>510124923688315.25</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>487205417018247.19</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>464285910348179.06</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>441366403678111</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>418446897008043</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>396780712202106.63</v>
       </c>
       <c r="AE86">
-        <v>0</v>
+        <v>375114527396170.38</v>
       </c>
       <c r="AF86">
-        <v>0</v>
+        <v>353448342590234.06</v>
       </c>
       <c r="AG86">
-        <v>0</v>
+        <v>331782157784297.69</v>
       </c>
       <c r="AH86">
-        <v>0</v>
+        <v>310115972978361.5</v>
       </c>
       <c r="AI86">
-        <v>0</v>
+        <v>288449788172425.25</v>
       </c>
       <c r="AJ86">
-        <v>0</v>
+        <v>266783603366488.97</v>
       </c>
       <c r="AK86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.45">
+        <v>245117418560552.69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>36</v>
       </c>
@@ -10987,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>36</v>
       </c>
@@ -11100,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -11213,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>36</v>
       </c>
@@ -11326,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -11439,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -11552,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -11665,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -11778,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -11891,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -12004,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>35</v>
       </c>
@@ -12117,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -12230,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>35</v>
       </c>
@@ -12241,19 +12277,19 @@
         <v>32</v>
       </c>
       <c r="D99">
-        <v>135916322988352.5</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>108733058390682</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>81549793793011.5</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>54366529195341</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>27183264597670.5</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -12343,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -12354,19 +12390,19 @@
         <v>33</v>
       </c>
       <c r="D100">
-        <v>15101813665372.5</v>
+        <v>135916322988352.5</v>
       </c>
       <c r="E100">
-        <v>12081450932298</v>
+        <v>108733058390682</v>
       </c>
       <c r="F100">
-        <v>9061088199223.5</v>
+        <v>81549793793011.5</v>
       </c>
       <c r="G100">
-        <v>6040725466149</v>
+        <v>54366529195341</v>
       </c>
       <c r="H100">
-        <v>3020362733074.5</v>
+        <v>27183264597670.5</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -12456,7 +12492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -12467,19 +12503,19 @@
         <v>34</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>15101813665372.5</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>12081450932298</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>9061088199223.5</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>6040725466149</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3020362733074.5</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -12569,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -12795,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>36</v>
       </c>
@@ -12806,19 +12842,19 @@
         <v>32</v>
       </c>
       <c r="D104">
-        <v>3215758233897</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2572606587117.6001</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1929454940338.2002</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1286303293558.8003</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>643151646779.40027</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -12908,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>36</v>
       </c>
@@ -12919,19 +12955,19 @@
         <v>33</v>
       </c>
       <c r="D105">
-        <v>357306470433</v>
+        <v>3215758233897</v>
       </c>
       <c r="E105">
-        <v>285845176346.40002</v>
+        <v>2572606587117.6001</v>
       </c>
       <c r="F105">
-        <v>214383882259.80002</v>
+        <v>1929454940338.2002</v>
       </c>
       <c r="G105">
-        <v>142922588173.20001</v>
+        <v>1286303293558.8003</v>
       </c>
       <c r="H105">
-        <v>71461294086.600006</v>
+        <v>643151646779.40027</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -13021,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>36</v>
       </c>
@@ -13032,19 +13068,19 @@
         <v>34</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>357306470433</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>285845176346.40002</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>214383882259.80002</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>142922588173.20001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>71461294086.600006</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -13134,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -13247,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -13360,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -13473,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -13586,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -13699,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -13812,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -13925,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -14038,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>35</v>
       </c>
@@ -14151,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>35</v>
       </c>
@@ -14264,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>36</v>
       </c>
@@ -14377,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>36</v>
       </c>
@@ -14490,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>36</v>
       </c>
@@ -14603,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>36</v>
       </c>
@@ -14716,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>36</v>
       </c>
@@ -14829,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>30</v>
       </c>
@@ -14942,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>30</v>
       </c>
@@ -15055,7 +15091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -15168,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -15179,109 +15215,109 @@
         <v>33</v>
       </c>
       <c r="D125">
-        <v>598966165903575.75</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>613594869391822.25</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>628223572880068.75</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>642852276368315.25</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>657480979856561.75</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>672109683344808.5</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>680836723426475.88</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>689563763508143.13</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>698290803589810.5</v>
+        <v>0</v>
       </c>
       <c r="M125">
-        <v>707017843671477.75</v>
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>715744883753145</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>732093467269984.25</v>
+        <v>0</v>
       </c>
       <c r="P125">
-        <v>748442050786823.5</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>764790634303662.63</v>
+        <v>0</v>
       </c>
       <c r="R125">
-        <v>781139217820501.88</v>
+        <v>0</v>
       </c>
       <c r="S125">
-        <v>797487801337341.13</v>
+        <v>0</v>
       </c>
       <c r="T125">
-        <v>812365588810572.13</v>
+        <v>0</v>
       </c>
       <c r="U125">
-        <v>827243376283803</v>
+        <v>0</v>
       </c>
       <c r="V125">
-        <v>842121163757033.88</v>
+        <v>0</v>
       </c>
       <c r="W125">
-        <v>856998951230264.75</v>
+        <v>0</v>
       </c>
       <c r="X125">
-        <v>871876738703495.75</v>
+        <v>0</v>
       </c>
       <c r="Y125">
-        <v>889528539828156.75</v>
+        <v>0</v>
       </c>
       <c r="Z125">
-        <v>907180340952818</v>
+        <v>0</v>
       </c>
       <c r="AA125">
-        <v>924832142077479.13</v>
+        <v>0</v>
       </c>
       <c r="AB125">
-        <v>942483943202140.13</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>960135744326801.38</v>
+        <v>0</v>
       </c>
       <c r="AD125">
-        <v>961105015619670.75</v>
+        <v>0</v>
       </c>
       <c r="AE125">
-        <v>962074286912539.88</v>
+        <v>0</v>
       </c>
       <c r="AF125">
-        <v>963043558205409.25</v>
+        <v>0</v>
       </c>
       <c r="AG125">
-        <v>964012829498278.5</v>
+        <v>0</v>
       </c>
       <c r="AH125">
-        <v>964982100791147.88</v>
+        <v>0</v>
       </c>
       <c r="AI125">
-        <v>965951372084017.25</v>
+        <v>0</v>
       </c>
       <c r="AJ125">
-        <v>966920643376886.38</v>
+        <v>0</v>
       </c>
       <c r="AK125">
-        <v>967889914669755.75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>30</v>
       </c>
@@ -15292,109 +15328,109 @@
         <v>34</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>536088633298760.56</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>548413893961822.19</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>560739154624883.94</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>573064415287945.63</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>585389675951007.25</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>597714936614069</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>601678769162570.5</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>605642601711071.88</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>609606434259573.25</v>
       </c>
       <c r="M126">
-        <v>0</v>
+        <v>613570266808074.63</v>
       </c>
       <c r="N126">
-        <v>0</v>
+        <v>617534099356576</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>625587671339791.38</v>
       </c>
       <c r="P126">
-        <v>0</v>
+        <v>633641243323006.75</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>641694815306222.13</v>
       </c>
       <c r="R126">
-        <v>0</v>
+        <v>649748387289437.5</v>
       </c>
       <c r="S126">
-        <v>0</v>
+        <v>657801959272653</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>668103516354209.75</v>
       </c>
       <c r="U126">
-        <v>0</v>
+        <v>678405073435766.5</v>
       </c>
       <c r="V126">
-        <v>0</v>
+        <v>688706630517323.38</v>
       </c>
       <c r="W126">
-        <v>0</v>
+        <v>699008187598880.13</v>
       </c>
       <c r="X126">
-        <v>0</v>
+        <v>709309744680436.88</v>
       </c>
       <c r="Y126">
-        <v>0</v>
+        <v>702748315313940.88</v>
       </c>
       <c r="Z126">
-        <v>0</v>
+        <v>696186885947444.88</v>
       </c>
       <c r="AA126">
-        <v>0</v>
+        <v>689625456580948.75</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>683064027214452.75</v>
       </c>
       <c r="AC126">
-        <v>0</v>
+        <v>676502597847956.63</v>
       </c>
       <c r="AD126">
-        <v>0</v>
+        <v>677141098567506.63</v>
       </c>
       <c r="AE126">
-        <v>0</v>
+        <v>677779599287056.5</v>
       </c>
       <c r="AF126">
-        <v>0</v>
+        <v>678418100006606.38</v>
       </c>
       <c r="AG126">
-        <v>0</v>
+        <v>679056600726156.25</v>
       </c>
       <c r="AH126">
-        <v>0</v>
+        <v>679695101445706.13</v>
       </c>
       <c r="AI126">
-        <v>0</v>
+        <v>680333602165256</v>
       </c>
       <c r="AJ126">
-        <v>0</v>
+        <v>680972102884805.88</v>
       </c>
       <c r="AK126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.45">
+        <v>681610603604355.75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>35</v>
       </c>
@@ -15507,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -15620,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>35</v>
       </c>
@@ -15733,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>35</v>
       </c>
@@ -15744,109 +15780,109 @@
         <v>33</v>
       </c>
       <c r="D130">
-        <v>313037451949964.38</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>336891349652692.69</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>360745247355420.94</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>384599145058149.25</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>408453042760877.56</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>432306940463605.81</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>455674773943184.69</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>479042607422763.5</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>502410440902342.31</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>525778274381921.13</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>549146107861500.06</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>558779142889854.13</v>
+        <v>0</v>
       </c>
       <c r="P130">
-        <v>568412177918208.25</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>578045212946562.38</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>587678247974916.63</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>597311283003270.75</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>608715515447780.5</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>620119747892290.38</v>
+        <v>0</v>
       </c>
       <c r="V130">
-        <v>631523980336800.13</v>
+        <v>0</v>
       </c>
       <c r="W130">
-        <v>642928212781309.88</v>
+        <v>0</v>
       </c>
       <c r="X130">
-        <v>654332445225819.75</v>
+        <v>0</v>
       </c>
       <c r="Y130">
-        <v>662402566596176.5</v>
+        <v>0</v>
       </c>
       <c r="Z130">
-        <v>670472687966533.5</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>678542809336890.25</v>
+        <v>0</v>
       </c>
       <c r="AB130">
-        <v>686612930707247.25</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>694683052077603.88</v>
+        <v>0</v>
       </c>
       <c r="AD130">
-        <v>704088788136643.88</v>
+        <v>0</v>
       </c>
       <c r="AE130">
-        <v>713494524195684</v>
+        <v>0</v>
       </c>
       <c r="AF130">
-        <v>722900260254723.88</v>
+        <v>0</v>
       </c>
       <c r="AG130">
-        <v>732305996313763.88</v>
+        <v>0</v>
       </c>
       <c r="AH130">
-        <v>741711732372803.75</v>
+        <v>0</v>
       </c>
       <c r="AI130">
-        <v>751117468431843.88</v>
+        <v>0</v>
       </c>
       <c r="AJ130">
-        <v>760523204490883.88</v>
+        <v>0</v>
       </c>
       <c r="AK130">
-        <v>769928940549923.88</v>
-      </c>
-    </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>35</v>
       </c>
@@ -15857,109 +15893,109 @@
         <v>34</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>375914984554779.5</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>400124596355225.38</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>424334208155671.25</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>448543819956117.13</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>472753431756563</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>496963043557008.94</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>510257212805118.94</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>523551382053228.94</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>536845551301339.06</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>550139720549449.06</v>
       </c>
       <c r="N131">
-        <v>0</v>
+        <v>563433889797559.38</v>
       </c>
       <c r="O131">
-        <v>0</v>
+        <v>596738873207233.13</v>
       </c>
       <c r="P131">
-        <v>0</v>
+        <v>630043856616906.88</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>663348840026580.75</v>
       </c>
       <c r="R131">
-        <v>0</v>
+        <v>696653823436254.38</v>
       </c>
       <c r="S131">
-        <v>0</v>
+        <v>729958806845928.25</v>
       </c>
       <c r="T131">
-        <v>0</v>
+        <v>725245200384286.25</v>
       </c>
       <c r="U131">
-        <v>0</v>
+        <v>720531593922644.25</v>
       </c>
       <c r="V131">
-        <v>0</v>
+        <v>715817987461002.38</v>
       </c>
       <c r="W131">
-        <v>0</v>
+        <v>711104380999360.25</v>
       </c>
       <c r="X131">
-        <v>0</v>
+        <v>706390774537718.25</v>
       </c>
       <c r="Y131">
-        <v>0</v>
+        <v>702128906658075.88</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>697867038778433.25</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>693605170898790.88</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>689343303019148.5</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>685081435139506.25</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>678673226428623.13</v>
       </c>
       <c r="AE131">
-        <v>0</v>
+        <v>672265017717739.88</v>
       </c>
       <c r="AF131">
-        <v>0</v>
+        <v>665856809006856.63</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>659448600295973.38</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>653040391585090.25</v>
       </c>
       <c r="AI131">
-        <v>0</v>
+        <v>646632182874207.13</v>
       </c>
       <c r="AJ131">
-        <v>0</v>
+        <v>640223974163323.88</v>
       </c>
       <c r="AK131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.45">
+        <v>633815765452440.63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>36</v>
       </c>
@@ -16072,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>36</v>
       </c>
@@ -16185,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>36</v>
       </c>
@@ -16298,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>36</v>
       </c>
@@ -16309,109 +16345,109 @@
         <v>33</v>
       </c>
       <c r="D135">
-        <v>93462295881150</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>97405999818698.172</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>101349703756246.33</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>105293407693794.52</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>109237111631342.67</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>113180815568890.88</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>116469904022409.5</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>119758992475928.11</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>123048080929446.72</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>126337169382965.34</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>129626257836483.97</v>
+        <v>0</v>
       </c>
       <c r="O135">
-        <v>132288858809117.38</v>
+        <v>0</v>
       </c>
       <c r="P135">
-        <v>134951459781750.83</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>137614060754384.22</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>140276661727017.67</v>
+        <v>0</v>
       </c>
       <c r="S135">
-        <v>142939262699651.09</v>
+        <v>0</v>
       </c>
       <c r="T135">
-        <v>145632648859332.56</v>
+        <v>0</v>
       </c>
       <c r="U135">
-        <v>148326035019014.06</v>
+        <v>0</v>
       </c>
       <c r="V135">
-        <v>151019421178695.5</v>
+        <v>0</v>
       </c>
       <c r="W135">
-        <v>153712807338376.97</v>
+        <v>0</v>
       </c>
       <c r="X135">
-        <v>156406193498058.47</v>
+        <v>0</v>
       </c>
       <c r="Y135">
-        <v>159042180772450.44</v>
+        <v>0</v>
       </c>
       <c r="Z135">
-        <v>161678168046842.41</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>164314155321234.41</v>
+        <v>0</v>
       </c>
       <c r="AB135">
-        <v>166950142595626.38</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>169586129870018.34</v>
+        <v>0</v>
       </c>
       <c r="AD135">
-        <v>170649362501896.97</v>
+        <v>0</v>
       </c>
       <c r="AE135">
-        <v>171712595133775.63</v>
+        <v>0</v>
       </c>
       <c r="AF135">
-        <v>172775827765654.25</v>
+        <v>0</v>
       </c>
       <c r="AG135">
-        <v>173839060397532.91</v>
+        <v>0</v>
       </c>
       <c r="AH135">
-        <v>174902293029411.5</v>
+        <v>0</v>
       </c>
       <c r="AI135">
-        <v>175965525661290.13</v>
+        <v>0</v>
       </c>
       <c r="AJ135">
-        <v>177028758293168.78</v>
+        <v>0</v>
       </c>
       <c r="AK135">
-        <v>178091990925047.41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -16422,109 +16458,109 @@
         <v>34</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>93462295881150</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>97206396226059.797</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>100950496570969.59</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>104694596915879.39</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>108438697260789.19</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>112182797605698.98</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>113951400754476.56</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>115720003903254.17</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>117488607052031.75</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>119257210200809.33</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>121025813349586.92</v>
       </c>
       <c r="O136">
-        <v>0</v>
+        <v>125264245594455.39</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>129502677839323.84</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>133741110084192.31</v>
       </c>
       <c r="R136">
-        <v>0</v>
+        <v>137979542329060.78</v>
       </c>
       <c r="S136">
-        <v>0</v>
+        <v>142217974573929.25</v>
       </c>
       <c r="T136">
-        <v>0</v>
+        <v>142790628765188.81</v>
       </c>
       <c r="U136">
-        <v>0</v>
+        <v>143363282956448.38</v>
       </c>
       <c r="V136">
-        <v>0</v>
+        <v>143935937147707.97</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>144508591338967.56</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>145081245530227.13</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>143972072068822.44</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>142862898607417.72</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>141753725146013</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>140644551684608.31</v>
       </c>
       <c r="AC136">
-        <v>0</v>
+        <v>139535378223203.63</v>
       </c>
       <c r="AD136">
-        <v>0</v>
+        <v>138944097503612.86</v>
       </c>
       <c r="AE136">
-        <v>0</v>
+        <v>138352816784022.06</v>
       </c>
       <c r="AF136">
-        <v>0</v>
+        <v>137761536064431.28</v>
       </c>
       <c r="AG136">
-        <v>0</v>
+        <v>137170255344840.52</v>
       </c>
       <c r="AH136">
-        <v>0</v>
+        <v>136578974625249.75</v>
       </c>
       <c r="AI136">
-        <v>0</v>
+        <v>135987693905658.97</v>
       </c>
       <c r="AJ136">
-        <v>0</v>
+        <v>135396413186068.2</v>
       </c>
       <c r="AK136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.45">
+        <v>134805132466477.41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -16637,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -16750,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -16863,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -16976,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>30</v>
       </c>
@@ -17089,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>35</v>
       </c>
@@ -17202,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>35</v>
       </c>
@@ -17315,7 +17351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>35</v>
       </c>
@@ -17428,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>35</v>
       </c>
@@ -17541,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>35</v>
       </c>
@@ -17654,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -17767,7 +17803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
@@ -17880,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>36</v>
       </c>
@@ -17993,7 +18029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>36</v>
       </c>
@@ -18106,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>36</v>
       </c>
@@ -18216,6 +18252,110 @@
         <v>0</v>
       </c>
       <c r="AK151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>0</v>
+      </c>
+      <c r="AF152">
+        <v>0</v>
+      </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AK152">
         <v>0</v>
       </c>
     </row>
@@ -18225,7 +18365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18239,13 +18379,13 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.86328125" customWidth="1"/>
-    <col min="2" max="7" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18270,17 +18410,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,B$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>91643082695721.781</v>
+        <v>0</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -18288,25 +18428,25 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>57766719469841.469</v>
+        <v>91902822070463.688</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>167016388205793.28</v>
+        <v>60068568967824.883</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>35404039443898.594</v>
+        <v>162990416968987.22</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,B$1,'Calculations - from BCEU'!$B$2:$B$151,$A3)</f>
-        <v>0</v>
+        <v>35174510988328.906</v>
       </c>
       <c r="C3" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A3)</f>
@@ -18329,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -18351,14 +18491,14 @@
       </c>
       <c r="F4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>83736758498055.078</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>89578934621423.188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -18387,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -18416,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -18438,14 +18578,14 @@
       </c>
       <c r="F7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>447563177736256.06</v>
+        <v>0</v>
       </c>
       <c r="G7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>418270321010132.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -18474,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -18503,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -18525,14 +18665,14 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>613594869391822.25</v>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Urban Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>548413893961822.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -18568,7 +18708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18582,13 +18722,13 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.86328125" customWidth="1"/>
-    <col min="2" max="7" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18613,17 +18753,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,B$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>1</v>
+        <v>31767171709068.465</v>
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>180699697898432.28</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -18631,19 +18771,19 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>113903073202393.92</v>
+        <v>181211845953338.09</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>329319027744611.56</v>
+        <v>118441806477815.25</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>69808861113260.156</v>
+        <v>321380711345390.31</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -18672,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -18694,14 +18834,14 @@
       </c>
       <c r="F4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>34489590862747.207</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>50538424854252.664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -18730,7 +18870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -18759,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -18781,14 +18921,14 @@
       </c>
       <c r="F7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>3612497415464614</v>
+        <v>0</v>
       </c>
       <c r="G7" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3215860277605575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -18806,18 +18946,18 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>108733058390682</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>12081450932298</v>
+        <v>108733058390682</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>12081450932298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -18846,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -18868,14 +19008,14 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>336891349652692.69</v>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Rural Residential",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>400124596355225.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -18911,7 +19051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18925,13 +19065,13 @@
       <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.86328125" customWidth="1"/>
-    <col min="2" max="7" width="23.86328125" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="7" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18956,17 +19096,17 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,B$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>0</v>
+        <v>62637769944684.258</v>
       </c>
       <c r="C2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,C$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>201033808519699.41</v>
+        <v>0</v>
       </c>
       <c r="D2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,D$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
@@ -18974,19 +19114,19 @@
       </c>
       <c r="E2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>44985202764349.727</v>
+        <v>178812501154953.03</v>
       </c>
       <c r="F2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>64730113102559.594</v>
+        <v>44206175299044.531</v>
       </c>
       <c r="G2" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A2)</f>
-        <v>36463019416576.25</v>
+        <v>73878524100758.688</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -19015,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -19044,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -19073,7 +19213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -19102,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -19131,7 +19271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -19149,18 +19289,18 @@
       </c>
       <c r="E8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,E$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>2572606587117.6001</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>285845176346.40002</v>
+        <v>2572606587117.6001</v>
       </c>
       <c r="G8" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>285845176346.40002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -19189,7 +19329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -19211,14 +19351,14 @@
       </c>
       <c r="F10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,F$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>97405999818698.172</v>
+        <v>0</v>
       </c>
       <c r="G10" s="13">
         <f>SUMIFS(INDEX('Calculations - from BCEU'!$D$2:$AK$151,,MATCH(About!$A$41,'Calculations - from BCEU'!$D$1:$AK$1,0)),'Calculations - from BCEU'!$A$2:$A$151,"Commercial",'Calculations - from BCEU'!$C$2:$C$151,G$1,'Calculations - from BCEU'!$B$2:$B$151,$A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>97206396226059.797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -19247,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
